--- a/archivos/KPI.xlsx
+++ b/archivos/KPI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="41" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="16" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="KPI 1" sheetId="1" r:id="rId4"/>
@@ -23,7 +23,7 @@
     <sheet name="KPI 14" sheetId="14" r:id="rId17"/>
     <sheet name="KPI 15" sheetId="15" r:id="rId18"/>
     <sheet name="KPI 16" sheetId="16" r:id="rId19"/>
-    <sheet name="KP I17" sheetId="17" r:id="rId20"/>
+    <sheet name="KPI 17" sheetId="17" r:id="rId20"/>
     <sheet name="KPI 18" sheetId="18" r:id="rId21"/>
     <sheet name="KPI 19" sheetId="19" r:id="rId22"/>
     <sheet name="KPI 20" sheetId="20" r:id="rId23"/>
@@ -37,7 +37,7 @@
     <sheet name="KPI 28" sheetId="28" r:id="rId31"/>
     <sheet name="KPI 29" sheetId="29" r:id="rId32"/>
     <sheet name="KPI 30" sheetId="30" r:id="rId33"/>
-    <sheet name="KP I31" sheetId="31" r:id="rId34"/>
+    <sheet name="KPI 31" sheetId="31" r:id="rId34"/>
     <sheet name="KPI 32" sheetId="32" r:id="rId35"/>
     <sheet name="KPI 33" sheetId="33" r:id="rId36"/>
     <sheet name="KPI 34" sheetId="34" r:id="rId37"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>nombre</t>
   </si>
@@ -175,6 +175,15 @@
     <t>Yurany Julieth Reyes guayacundo</t>
   </si>
   <si>
+    <t xml:space="preserve">Errores&lt;br&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Días Retraso&lt;br&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisitas&lt;br&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">Programados&lt;br&gt; </t>
   </si>
   <si>
@@ -187,12 +196,18 @@
     <t xml:space="preserve">Devoluciones&lt;br&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">Días Retraso&lt;br&gt; </t>
+    <t xml:space="preserve">Gasto&lt;br&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">Maycol Guio Suarez </t>
   </si>
   <si>
+    <t xml:space="preserve">Profit&lt;br&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta&lt;br&gt; </t>
+  </si>
+  <si>
     <t xml:space="preserve">Retraso&lt;br&gt; </t>
   </si>
   <si>
@@ -202,19 +217,43 @@
     <t xml:space="preserve">Marcela Espitia Cuervo </t>
   </si>
   <si>
+    <t xml:space="preserve">Retraso/Calidad&lt;br&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correcciones&lt;br&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ticket no Creado&lt;br&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ticket no Documentado&lt;br&gt; </t>
+  </si>
+  <si>
+    <t>Holman Cidney Jimenez Collazos</t>
+  </si>
+  <si>
+    <t>Stephania Colmenares Cruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion off Time&lt;br&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicitud Incorrecta&lt;br&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicitud Off Time&lt;br&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ejecutado&lt;br&gt; </t>
+  </si>
+  <si>
+    <t>Sandra Beatriz Cardenas Cardona</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cantidad&lt;br&gt; </t>
   </si>
   <si>
     <t>Johan Manuel Beltrán Jimenez</t>
-  </si>
-  <si>
-    <t>Holman Cidney Jimenez Collazos</t>
-  </si>
-  <si>
-    <t>Stephania Colmenares Cruz</t>
-  </si>
-  <si>
-    <t>Sandra Beatriz Cardenas Cardona</t>
   </si>
 </sst>
 </file>
@@ -584,35 +623,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -636,18 +647,282 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -666,7 +941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -684,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -695,12 +970,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -719,7 +1006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -740,7 +1027,7 @@
         <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -748,12 +1035,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -772,43 +1071,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -818,10 +1089,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -829,8 +1100,25 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>44</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -848,12 +1136,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -866,10 +1154,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -877,8 +1165,25 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>44</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -896,127 +1201,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1026,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -1037,15 +1230,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1064,348 +1252,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G23" sqref="G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:D45"/>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1418,10 +1270,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1429,7 +1281,988 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
         <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D45"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>65</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1463,200 +2296,320 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>11</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>13</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>14</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>15</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>16</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>17</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>18</v>
       </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>19</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>20</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>21</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>22</v>
       </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>23</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>24</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>25</v>
       </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>26</v>
       </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>27</v>
       </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>28</v>
       </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>29</v>
       </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>30</v>
       </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>31</v>
       </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>32</v>
       </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>33</v>
       </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>34</v>
       </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>35</v>
       </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>36</v>
       </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>37</v>
       </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>38</v>
       </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>51</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>58</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>63</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1962,7 +2915,7 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2076,10 +3029,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2087,36 +3040,66 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
@@ -2127,126 +3110,276 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>16</v>
       </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>19</v>
       </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>20</v>
       </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>21</v>
       </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>22</v>
       </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>23</v>
       </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>24</v>
       </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>25</v>
       </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>26</v>
       </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>27</v>
       </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>28</v>
       </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>29</v>
       </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>30</v>
       </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>31</v>
       </c>
+      <c r="B29">
+        <v>13</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>32</v>
       </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>33</v>
       </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>34</v>
       </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>35</v>
       </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>36</v>
       </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
@@ -2257,6 +3390,12 @@
       <c r="A36" t="s">
         <v>38</v>
       </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -2279,14 +3418,414 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2307,14 +3846,204 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/archivos/KPI.xlsx
+++ b/archivos/KPI.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>nombre</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>Johan Manuel Beltrán Jimenez</t>
+  </si>
+  <si>
+    <t>Jeidy Carolina Suarez Neita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantidad informes no entregado a tiempo&lt;br&gt; </t>
   </si>
 </sst>
 </file>
@@ -973,7 +979,7 @@
         <v>43</v>
       </c>
       <c r="B2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>24</v>
@@ -2885,14 +2891,40 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2913,14 +2945,37 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
